--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Modelo</t>
   </si>
@@ -34,12 +34,12 @@
     <t>MCPS</t>
   </si>
   <si>
+    <t>Sieve Bootstrap</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>Sieve Bootstrap</t>
-  </si>
-  <si>
     <t>EnCQR-LSTM</t>
   </si>
   <si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Block Bootstrapping</t>
-  </si>
-  <si>
-    <t>6/10</t>
   </si>
   <si>
     <t>5/10</t>
@@ -462,7 +459,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>153.6</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -476,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>128</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.6217869373211101</v>
+        <v>0.5295197719051405</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -493,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>102.4</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>0.5295197719051405</v>
+        <v>0.6217869373211101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -510,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>102.4</v>
@@ -527,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>76.8</v>
@@ -544,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>25.6</v>
@@ -561,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>25.6</v>
@@ -578,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -595,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0</v>
